--- a/Assets/StreamingAssets/5_Ling_He.xlsx
+++ b/Assets/StreamingAssets/5_Ling_He.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5BA572-2D57-EB41-943D-DEE9B2D1A31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492729DF-F82D-D040-92C3-EFED4DE50346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="80">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>He-Pity1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>He-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,10 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Now let’s hear Ling’s testimony.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>He-Sad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,6 +337,21 @@
   <si>
     <t>StoryScript6</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He-Pity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He-Regular1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He-Regular2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appearAt</t>
   </si>
 </sst>
 </file>
@@ -740,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -813,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -834,7 +841,7 @@
         <v>500</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17">
@@ -842,13 +849,16 @@
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -859,13 +869,16 @@
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -876,13 +889,16 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -893,20 +909,25 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K6" s="2">
         <v>500</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="34">
@@ -914,13 +935,16 @@
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -928,10 +952,13 @@
     </row>
     <row r="8" spans="1:16" ht="34">
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -939,10 +966,13 @@
     </row>
     <row r="9" spans="1:16" ht="17">
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -950,10 +980,13 @@
     </row>
     <row r="10" spans="1:16" ht="17">
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -964,13 +997,16 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -981,13 +1017,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -998,13 +1037,16 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1015,20 +1057,25 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K14" s="2">
         <v>500</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="34">
@@ -1036,13 +1083,16 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1053,13 +1103,16 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1070,10 +1123,13 @@
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1084,15 +1140,20 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="K18" s="2">
         <v>500</v>
       </c>
@@ -1105,13 +1166,16 @@
         <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1122,20 +1186,25 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K20" s="2">
         <v>500</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17">
@@ -1143,13 +1212,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1160,13 +1232,16 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1174,10 +1249,13 @@
     </row>
     <row r="23" spans="1:12" ht="68">
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1185,10 +1263,13 @@
     </row>
     <row r="24" spans="1:12" ht="51">
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1196,10 +1277,13 @@
     </row>
     <row r="25" spans="1:12" ht="34">
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1210,13 +1294,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1227,7 +1314,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -1235,12 +1322,17 @@
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K27" s="2">
         <v>500</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="34">
@@ -1248,13 +1340,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1265,13 +1360,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1282,15 +1380,20 @@
         <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K30" s="2">
         <v>500</v>
       </c>
@@ -1303,13 +1406,16 @@
         <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1317,10 +1423,13 @@
     </row>
     <row r="32" spans="1:12" ht="51">
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -1328,10 +1437,13 @@
     </row>
     <row r="33" spans="1:12" ht="51">
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1342,13 +1454,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -1359,7 +1474,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -1367,12 +1482,17 @@
       <c r="D35" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="2"/>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K35" s="2">
         <v>500</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="34">
@@ -1380,13 +1500,16 @@
         <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1397,13 +1520,16 @@
         <v>24</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1411,10 +1537,13 @@
     </row>
     <row r="38" spans="1:12" ht="51">
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -1425,13 +1554,16 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -1442,13 +1574,16 @@
         <v>23</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -1459,7 +1594,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -1467,12 +1602,17 @@
       <c r="D41" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="2"/>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K41" s="2">
         <v>500</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="17">
@@ -1480,13 +1620,16 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -1497,41 +1640,36 @@
         <v>23</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="34">
+    <row r="44" spans="1:12" ht="17">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
       <c r="B44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" ht="17">
-      <c r="A45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/StreamingAssets/5_Ling_He.xlsx
+++ b/Assets/StreamingAssets/5_Ling_He.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492729DF-F82D-D040-92C3-EFED4DE50346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A2DD74-0297-4846-B4E7-3A1E2FC1EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -159,46 +159,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Aren’t you very familiar with the layout of the manor, Steward He?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>As the steward, that’s part of my duty.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Because of my job, I walk around the manor all the time.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>When was the last time you saw Master Xu today?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The last time I saw the Master was shortly before the banquet was scheduled to begin.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I mean, shortly before the originally scheduled start time.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Around the beginning of the Wu hour.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>But the actual banquet started at mid-Wu.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Can you be more precise about the time?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Roughly the second quarter of the You hour.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Where were you and what were you doing before that?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,18 +179,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I was there with Ling and Chen the entire time—they can confirm that.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Once dinner was ready, I suddenly remembered I’d forgotten to refill the lanterns at the guestroom doors.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>So I went to the backyard right before the second quarter of the You hour.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Just as I arrived, I saw the Lord coming out.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Although your statement is brief, there are a few key points to note—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Where did you go after that?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Are the clothes on Lord Xu’s body now the same ones you saw him wearing last time?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yes, it’s the same. That outfit is his only set.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>After the Wu hour, I spent most of my time in the banquet hall with everyone else, waiting for the Master to show up.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>From time to time, I went to the kitchen with Ling to reheat the food.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,18 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No. Before I helped the Young Master search for the Master, I only moved between the banquet hall and the kitchen.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I remember you came to inform us of the original start time, which was—)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(First, if what you said is true, then Lord Xu was still alive at the second quarter of the You hour, and he left the backyard of his own accord.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Second, he left to find Doctor Ran, so logically, he should’ve been heading toward Doctor Ran’s room next.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(If Lord Xu was killed after it began raining, the killer’s clothes would probably have gotten wet, right?)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(I looked closely at He's clothes. They’re slightly damp, but overall, still quite neat and dry.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,6 +288,70 @@
   </si>
   <si>
     <t>appearAt</t>
+  </si>
+  <si>
+    <t>Aren’t you very familiar with the layout of the manor?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As the butler, that’s part of my duty.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When was the last time you saw the Lord today?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The last time I saw the Lord was shortly before the banquet was scheduled to begin.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I remember you came to inform us of the original start time, which was——)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Around 7 PM.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But the actual banquet started at 8 PM.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roughly 6.30 PM.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was there with Ling and Chen the entire time——they can confirm that.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>So I went to the backyard right before 6.30 PM.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Although your statement is brief, there are a few key points to note——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(First, if Butler He said is true, then the Lord was still alive at 6.30 PM, and he left the backyard of his own accord.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(If the Lord was killed after it began raining, the killer’s clothes would probably have gotten wet, right?)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are the clothes on the Lord’s body now the same ones you saw him wearing last time?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After the 7 PM, I spent most of my time in the banquet hall with everyone else, waiting for the Lord to show up.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. Before I helped the Young Lord search for the Lord, I only moved between the banquet hall and the kitchen.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -815,12 +815,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="34">
+    <row r="2" spans="1:16" ht="17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -849,7 +849,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -869,7 +869,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -889,7 +889,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -909,10 +909,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -927,7 +927,7 @@
         <v>500</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="34">
@@ -935,7 +935,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="8" spans="1:16" ht="34">
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="9" spans="1:16" ht="17">
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="10" spans="1:16" ht="17">
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -997,7 +997,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -1017,10 +1017,10 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1037,7 +1037,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1057,10 +1057,10 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -1083,10 +1083,10 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -1103,10 +1103,10 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1118,15 +1118,15 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="34">
+    <row r="17" spans="1:12" ht="17">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
@@ -1140,10 +1140,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1152,7 +1152,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="K18" s="2">
         <v>500</v>
@@ -1166,10 +1166,10 @@
         <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1186,10 +1186,10 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1204,7 +1204,7 @@
         <v>500</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17">
@@ -1212,7 +1212,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -1247,9 +1247,9 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="68">
+    <row r="23" spans="1:12" ht="51">
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="24" spans="1:12" ht="51">
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="25" spans="1:12" ht="34">
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -1314,7 +1314,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -1340,7 +1340,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
@@ -1380,10 +1380,10 @@
         <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -1406,10 +1406,10 @@
         <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="32" spans="1:12" ht="51">
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="33" spans="1:12" ht="51">
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -1474,7 +1474,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -1492,7 +1492,7 @@
         <v>500</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="34">
@@ -1500,7 +1500,7 @@
         <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -1520,7 +1520,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="38" spans="1:12" ht="51">
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
@@ -1569,12 +1569,12 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="51">
+    <row r="40" spans="1:12" ht="34">
       <c r="A40" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -1594,7 +1594,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -1635,12 +1635,12 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="51">
+    <row r="43" spans="1:12" ht="34">
       <c r="A43" t="s">
         <v>23</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="44" spans="1:12" ht="17">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
         <v>20</v>

--- a/Assets/StreamingAssets/5_Ling_He.xlsx
+++ b/Assets/StreamingAssets/5_Ling_He.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A2DD74-0297-4846-B4E7-3A1E2FC1EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94072185-9506-934A-97A2-BEB8F010B63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -259,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(If he was going to find a doctor for Lady Mei, being in a rush would)&lt;/color&gt; make sense, wouldn’t it?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>He-Sad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,6 +347,10 @@
   </si>
   <si>
     <t>No. Before I helped the Young Lord search for the Lord, I only moved between the banquet hall and the kitchen.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(If he was going to find a doctor for Lady Mei, being in a rush would make sense, wouldn’t it?)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,7 +750,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:B50"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -849,7 +849,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -889,7 +889,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -909,10 +909,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -927,7 +927,7 @@
         <v>500</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="34">
@@ -952,7 +952,7 @@
     </row>
     <row r="8" spans="1:16" ht="34">
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="9" spans="1:16" ht="17">
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="10" spans="1:16" ht="17">
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1017,10 +1017,10 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1060,7 +1060,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -1083,10 +1083,10 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -1106,7 +1106,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1123,10 +1123,10 @@
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
@@ -1143,7 +1143,7 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1152,7 +1152,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K18" s="2">
         <v>500</v>
@@ -1169,7 +1169,7 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1189,7 +1189,7 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1204,7 +1204,7 @@
         <v>500</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17">
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="23" spans="1:12" ht="51">
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1383,7 +1383,7 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -1409,7 +1409,7 @@
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="32" spans="1:12" ht="51">
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -1492,7 +1492,7 @@
         <v>500</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="34">
@@ -1537,7 +1537,7 @@
     </row>
     <row r="38" spans="1:12" ht="51">
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -1574,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -1640,7 +1640,7 @@
         <v>23</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="44" spans="1:12" ht="17">
       <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E44" t="s">
         <v>20</v>
